--- a/OES_Report.xlsx
+++ b/OES_Report.xlsx
@@ -4258,7 +4258,7 @@
     <t>SOC code: Standard Occupational Classification code -- see http://www.bls.gov/soc/home.htm</t>
   </si>
   <si>
-    <t>Date extracted on :Oct 31, 2023</t>
+    <t>Date extracted on :Nov 05, 2023</t>
   </si>
 </sst>
 </file>
@@ -11368,7 +11368,7 @@
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
     <oddHeader>&amp;CBureau of Labor Statistics</oddHeader>
-    <oddFooter>&amp;LSource: Bureau of Labor Statistics&amp;RGenerated on: October 31, 2023 (01:10:14 PM)</oddFooter>
+    <oddFooter>&amp;LSource: Bureau of Labor Statistics&amp;RGenerated on: November 5, 2023 (01:23:29 PM)</oddFooter>
   </headerFooter>
 </worksheet>
 </file>